--- a/src/workflow/4_PRIM/t3b_sdiscovery/Units.xlsx
+++ b/src/workflow/4_PRIM/t3b_sdiscovery/Units.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClimateLeadGroup\Desktop\CLG_repositories\AFR_RDM\src\workflow\4_PRIM\t3b_sdiscovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F058D8-C033-4CFD-9109-2ED165094B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56CC81F-DA1A-46F8-8144-8E156BCD6A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,49 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ignacio  Alfaro Corrales</author>
-  </authors>
-  <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{92DB8B3F-3869-4203-B39D-70B65D3992E9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Renovables no convencionales (solar y eólico)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{4F84136C-DF4C-4D06-8268-8E576DE4A55C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>convencionales + no convencionales</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
-  <si>
-    <t>%</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>PJ</t>
   </si>
@@ -94,65 +53,53 @@
     <t>MtCO2</t>
   </si>
   <si>
-    <t>Benefit_direct</t>
-  </si>
-  <si>
-    <t>Benefit EneTra_direct</t>
-  </si>
-  <si>
-    <t>Benefit Waste_direct</t>
-  </si>
-  <si>
     <t>Fuel Demand_direct</t>
   </si>
   <si>
-    <t>Generation renewables_direct</t>
-  </si>
-  <si>
-    <t>Generation renewables total_direct</t>
-  </si>
-  <si>
-    <t>Utility-scale solar electricity production_direct</t>
-  </si>
-  <si>
-    <t>Wind electricity production_direct</t>
-  </si>
-  <si>
-    <t>ZEV Penetration of transport_direct</t>
-  </si>
-  <si>
-    <t>Electrification of Private Transport_direct</t>
-  </si>
-  <si>
-    <t>Electrification of Public Transport_direct</t>
-  </si>
-  <si>
-    <t>Electrification of Light Truck_direct</t>
-  </si>
-  <si>
-    <t>Electrification of Medium Truck_direct</t>
-  </si>
-  <si>
-    <t>Electrification of Heavy Truck_direct</t>
-  </si>
-  <si>
-    <t>Green solid waste_direct</t>
-  </si>
-  <si>
-    <t>Emissions National_direct</t>
-  </si>
-  <si>
-    <t>Emissions EneTra_direct</t>
-  </si>
-  <si>
     <t>Emissions Waste_direct</t>
+  </si>
+  <si>
+    <t>Costs_direct</t>
+  </si>
+  <si>
+    <t>Variable Costs Crops_direct</t>
+  </si>
+  <si>
+    <t>Emissions_direct</t>
+  </si>
+  <si>
+    <t>Capital Costs Electric Transport_direct</t>
+  </si>
+  <si>
+    <t>Capital Costs ICE Transport_direct</t>
+  </si>
+  <si>
+    <t>Capital Costs Industry_direct</t>
+  </si>
+  <si>
+    <t>Fixed Costs Crops_direct</t>
+  </si>
+  <si>
+    <t>Variable Costs Import Fuels_direct</t>
+  </si>
+  <si>
+    <t>Emissions Energy Transport_direct</t>
+  </si>
+  <si>
+    <t>Fixed Costs Electric Transport_direct</t>
+  </si>
+  <si>
+    <t>Fixed Costs ICE Transport_direct</t>
+  </si>
+  <si>
+    <t>Residential Demand_direct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,20 +116,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,18 +155,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -238,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -263,124 +191,182 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -392,23 +378,23 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,11 +674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AD022E-0AD7-42C8-ABEA-968FF59045A5}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AD022E-0AD7-42C8-ABEA-968FF59045A5}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,161 +688,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>5</v>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
